--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T11:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:58+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:24+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ARV treatment plan outcomes</t>
+    <t>A list of possible ARV treatment outcomes.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,10 +102,16 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>105480006</t>
-  </si>
-  <si>
-    <t>Procedure declined by patient (situation)</t>
+    <t>737038009</t>
+  </si>
+  <si>
+    <t>Declined consent for treatment (finding)</t>
+  </si>
+  <si>
+    <t>386473003</t>
+  </si>
+  <si>
+    <t>Telephone follow-up (procedure)</t>
   </si>
   <si>
     <t/>
@@ -381,7 +387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,15 +418,23 @@
         <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
